--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="941">
   <si>
     <t>Region</t>
   </si>
@@ -6850,6 +6850,15 @@
   </si>
   <si>
     <t>fwl-priv-sl,fwl-common-sl</t>
+  </si>
+  <si>
+    <t>DRG_fwl-vcn_attach</t>
+  </si>
+  <si>
+    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
+  </si>
+  <si>
+    <t>STATIC</t>
   </si>
 </sst>
 </file>
@@ -9581,8 +9590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -10540,7 +10549,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10606,20 +10615,36 @@
       </c>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="1:11" ht="58" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>926</v>
+      </c>
       <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>938</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>830</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>940</v>
+      </c>
       <c r="J3" s="39"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="58" customHeight="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10632,7 +10657,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="58" customHeight="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10645,7 +10670,7 @@
       <c r="J5" s="39"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="58" customHeight="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -14440,7 +14465,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20760,7 +20785,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21010,7 +21035,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21081,7 +21106,9 @@
       <c r="F3" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="29">
       <c r="A4" s="39" t="s">
@@ -21381,7 +21408,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -21424,9 +21451,7 @@
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8827228E-796C-714F-B0B6-F266A57392E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="944">
   <si>
     <t>Region</t>
   </si>
@@ -6867,15 +6866,18 @@
   <si>
     <t>Maximum Bandwidth In Mbps (Flexible shapes only)</t>
   </si>
+  <si>
+    <t>10.110.3.0/24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9359,23 +9361,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9411,23 +9396,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9603,20 +9571,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
         <v>884</v>
       </c>
@@ -9628,35 +9596,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="B2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
     <col min="17" max="17" width="10" style="40" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>493</v>
       </c>
@@ -9680,7 +9648,7 @@
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9736,7 +9704,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>326</v>
       </c>
@@ -9788,7 +9756,7 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>326</v>
       </c>
@@ -9840,7 +9808,7 @@
       <c r="Q4" s="41"/>
       <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>326</v>
       </c>
@@ -9854,7 +9822,7 @@
         <v>930</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>401</v>
+        <v>943</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>52</v>
@@ -9892,7 +9860,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>326</v>
       </c>
@@ -9944,7 +9912,7 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>326</v>
       </c>
@@ -9996,7 +9964,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>326</v>
       </c>
@@ -10048,7 +10016,7 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>326</v>
       </c>
@@ -10100,7 +10068,7 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
     </row>
-    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>326</v>
       </c>
@@ -10152,7 +10120,7 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
     </row>
-    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>326</v>
       </c>
@@ -10204,7 +10172,7 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>326</v>
       </c>
@@ -10256,7 +10224,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -10277,7 +10245,7 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="31.75" customHeight="1">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -10329,7 +10297,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -10377,7 +10345,7 @@
       <c r="Q15" s="86"/>
       <c r="R15" s="83"/>
     </row>
-    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="28.75" customHeight="1">
       <c r="A16" s="83" t="s">
         <v>5</v>
       </c>
@@ -10425,7 +10393,7 @@
       <c r="Q16" s="86"/>
       <c r="R16" s="83"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="83" t="s">
         <v>5</v>
       </c>
@@ -10475,7 +10443,7 @@
       <c r="Q17" s="86"/>
       <c r="R17" s="83"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -10525,7 +10493,7 @@
       <c r="Q18" s="86"/>
       <c r="R18" s="83"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>
@@ -10586,30 +10554,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="40"/>
+    <col min="1" max="1" width="8.6328125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="8.6328125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>883</v>
       </c>
@@ -10623,7 +10591,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -10656,7 +10624,7 @@
       </c>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="39" t="s">
         <v>326</v>
       </c>
@@ -10685,7 +10653,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10698,7 +10666,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10711,7 +10679,7 @@
       <c r="J5" s="39"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10724,7 +10692,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="58" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -10737,7 +10705,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="58" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -10750,7 +10718,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="58" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -10763,7 +10731,7 @@
       <c r="J9" s="39"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="58" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -10776,7 +10744,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="58" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -10789,7 +10757,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="58" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -10802,7 +10770,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="58" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -10815,7 +10783,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="58" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -10828,7 +10796,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="58" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -10841,7 +10809,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="58" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -10854,7 +10822,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="58" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -10867,7 +10835,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="29" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -10880,7 +10848,7 @@
       <c r="J18" s="39"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="29" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -10893,7 +10861,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="29" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -10906,7 +10874,7 @@
       <c r="J20" s="39"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="58" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -10919,7 +10887,7 @@
       <c r="J21" s="39"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="58" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -10932,7 +10900,7 @@
       <c r="J22" s="39"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="58" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -10945,7 +10913,7 @@
       <c r="J23" s="39"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="58" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -10958,7 +10926,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="58" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -10971,7 +10939,7 @@
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="58" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -10984,7 +10952,7 @@
       <c r="J26" s="39"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="58" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -10997,7 +10965,7 @@
       <c r="J27" s="39"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="58" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -11010,7 +10978,7 @@
       <c r="J28" s="39"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58" customHeight="1">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -11023,7 +10991,7 @@
       <c r="J29" s="39"/>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="58" customHeight="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -11036,7 +11004,7 @@
       <c r="J30" s="39"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="58" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -11049,7 +11017,7 @@
       <c r="J31" s="39"/>
       <c r="K31" s="41"/>
     </row>
-    <row r="32" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="58" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -11062,7 +11030,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="58" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -11075,7 +11043,7 @@
       <c r="J33" s="39"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="58" customHeight="1">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11088,7 +11056,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="58" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -11101,7 +11069,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="58" customHeight="1">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -11114,7 +11082,7 @@
       <c r="J36" s="39"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="58" customHeight="1">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -11127,7 +11095,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="58" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -11140,7 +11108,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="58" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -11153,7 +11121,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="58" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -11166,7 +11134,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="58" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -11179,7 +11147,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="58" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -11192,7 +11160,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="58" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -11205,7 +11173,7 @@
       <c r="J43" s="39"/>
       <c r="K43" s="41"/>
     </row>
-    <row r="44" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="58" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -11218,7 +11186,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="41"/>
     </row>
-    <row r="45" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="58" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -11231,7 +11199,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="41"/>
     </row>
-    <row r="46" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="58" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -11244,7 +11212,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="41"/>
     </row>
-    <row r="47" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="58" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -11257,7 +11225,7 @@
       <c r="J47" s="39"/>
       <c r="K47" s="41"/>
     </row>
-    <row r="48" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="58" customHeight="1">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -11270,7 +11238,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="41"/>
     </row>
-    <row r="49" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="58" customHeight="1">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -11283,7 +11251,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="41"/>
     </row>
-    <row r="50" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="58" customHeight="1">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -11296,7 +11264,7 @@
       <c r="J50" s="39"/>
       <c r="K50" s="41"/>
     </row>
-    <row r="51" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="58" customHeight="1">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -11309,7 +11277,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="41"/>
     </row>
-    <row r="52" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="58" customHeight="1">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -11322,7 +11290,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="41"/>
     </row>
-    <row r="53" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="58" customHeight="1">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -11335,7 +11303,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="41"/>
     </row>
-    <row r="54" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="58" customHeight="1">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -11348,7 +11316,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="41"/>
     </row>
-    <row r="55" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="58" customHeight="1">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -11361,7 +11329,7 @@
       <c r="J55" s="39"/>
       <c r="K55" s="41"/>
     </row>
-    <row r="56" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="58" customHeight="1">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -11374,7 +11342,7 @@
       <c r="J56" s="39"/>
       <c r="K56" s="41"/>
     </row>
-    <row r="57" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="58" customHeight="1">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -11387,7 +11355,7 @@
       <c r="J57" s="39"/>
       <c r="K57" s="41"/>
     </row>
-    <row r="58" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="58" customHeight="1">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -11400,7 +11368,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="41"/>
     </row>
-    <row r="59" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="58" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -11413,7 +11381,7 @@
       <c r="J59" s="39"/>
       <c r="K59" s="41"/>
     </row>
-    <row r="60" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="58" customHeight="1">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -11426,7 +11394,7 @@
       <c r="J60" s="39"/>
       <c r="K60" s="41"/>
     </row>
-    <row r="61" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="58" customHeight="1">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -11439,7 +11407,7 @@
       <c r="J61" s="39"/>
       <c r="K61" s="41"/>
     </row>
-    <row r="62" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="58" customHeight="1">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -11452,7 +11420,7 @@
       <c r="J62" s="39"/>
       <c r="K62" s="41"/>
     </row>
-    <row r="63" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="58" customHeight="1">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -11465,7 +11433,7 @@
       <c r="J63" s="39"/>
       <c r="K63" s="41"/>
     </row>
-    <row r="64" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="58" customHeight="1">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -11478,7 +11446,7 @@
       <c r="J64" s="39"/>
       <c r="K64" s="41"/>
     </row>
-    <row r="65" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="58" customHeight="1">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -11491,7 +11459,7 @@
       <c r="J65" s="39"/>
       <c r="K65" s="41"/>
     </row>
-    <row r="66" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="58" customHeight="1">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -11504,7 +11472,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="41"/>
     </row>
-    <row r="67" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="58" customHeight="1">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -11517,7 +11485,7 @@
       <c r="J67" s="39"/>
       <c r="K67" s="41"/>
     </row>
-    <row r="68" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="58" customHeight="1">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -11530,7 +11498,7 @@
       <c r="J68" s="39"/>
       <c r="K68" s="41"/>
     </row>
-    <row r="69" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="58" customHeight="1">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -11543,7 +11511,7 @@
       <c r="J69" s="39"/>
       <c r="K69" s="41"/>
     </row>
-    <row r="70" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="58" customHeight="1">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -11556,7 +11524,7 @@
       <c r="J70" s="39"/>
       <c r="K70" s="41"/>
     </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="58" customHeight="1">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -11569,7 +11537,7 @@
       <c r="J71" s="39"/>
       <c r="K71" s="41"/>
     </row>
-    <row r="72" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="58" customHeight="1">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -11582,7 +11550,7 @@
       <c r="J72" s="39"/>
       <c r="K72" s="41"/>
     </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="58" customHeight="1">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -11595,7 +11563,7 @@
       <c r="J73" s="39"/>
       <c r="K73" s="41"/>
     </row>
-    <row r="74" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="58" customHeight="1">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -11608,7 +11576,7 @@
       <c r="J74" s="39"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="58" customHeight="1">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -11621,7 +11589,7 @@
       <c r="J75" s="39"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="58" customHeight="1">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -11634,7 +11602,7 @@
       <c r="J76" s="39"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="58" customHeight="1">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -11647,7 +11615,7 @@
       <c r="J77" s="39"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="58" customHeight="1">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -11660,7 +11628,7 @@
       <c r="J78" s="39"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="58" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -11673,7 +11641,7 @@
       <c r="J79" s="39"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="58" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -11686,7 +11654,7 @@
       <c r="J80" s="39"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="58" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -11699,7 +11667,7 @@
       <c r="J81" s="39"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="58" customHeight="1">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -11712,7 +11680,7 @@
       <c r="J82" s="39"/>
       <c r="K82" s="41"/>
     </row>
-    <row r="83" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="58" customHeight="1">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -11725,7 +11693,7 @@
       <c r="J83" s="39"/>
       <c r="K83" s="41"/>
     </row>
-    <row r="84" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="58" customHeight="1">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -11738,7 +11706,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="41"/>
     </row>
-    <row r="85" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="58" customHeight="1">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -11751,7 +11719,7 @@
       <c r="J85" s="39"/>
       <c r="K85" s="41"/>
     </row>
-    <row r="86" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="58" customHeight="1">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -11764,7 +11732,7 @@
       <c r="J86" s="39"/>
       <c r="K86" s="41"/>
     </row>
-    <row r="87" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="58" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -11777,7 +11745,7 @@
       <c r="J87" s="39"/>
       <c r="K87" s="41"/>
     </row>
-    <row r="88" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="58" customHeight="1">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -11790,7 +11758,7 @@
       <c r="J88" s="39"/>
       <c r="K88" s="41"/>
     </row>
-    <row r="89" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="58" customHeight="1">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -11803,7 +11771,7 @@
       <c r="J89" s="39"/>
       <c r="K89" s="41"/>
     </row>
-    <row r="90" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="58" customHeight="1">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -11816,7 +11784,7 @@
       <c r="J90" s="39"/>
       <c r="K90" s="41"/>
     </row>
-    <row r="91" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="58" customHeight="1">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -11829,7 +11797,7 @@
       <c r="J91" s="39"/>
       <c r="K91" s="41"/>
     </row>
-    <row r="92" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="58" customHeight="1">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -11842,7 +11810,7 @@
       <c r="J92" s="39"/>
       <c r="K92" s="41"/>
     </row>
-    <row r="93" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="58" customHeight="1">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -11855,7 +11823,7 @@
       <c r="J93" s="39"/>
       <c r="K93" s="41"/>
     </row>
-    <row r="94" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="58" customHeight="1">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -11868,7 +11836,7 @@
       <c r="J94" s="39"/>
       <c r="K94" s="41"/>
     </row>
-    <row r="95" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="58" customHeight="1">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -11881,7 +11849,7 @@
       <c r="J95" s="39"/>
       <c r="K95" s="41"/>
     </row>
-    <row r="96" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="58" customHeight="1">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -11894,7 +11862,7 @@
       <c r="J96" s="39"/>
       <c r="K96" s="41"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -11907,7 +11875,7 @@
       <c r="J97" s="39"/>
       <c r="K97" s="41"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -11920,7 +11888,7 @@
       <c r="J98" s="39"/>
       <c r="K98" s="41"/>
     </row>
-    <row r="99" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="29" customHeight="1">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -11933,7 +11901,7 @@
       <c r="J99" s="39"/>
       <c r="K99" s="41"/>
     </row>
-    <row r="100" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="29" customHeight="1">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -11946,7 +11914,7 @@
       <c r="J100" s="39"/>
       <c r="K100" s="41"/>
     </row>
-    <row r="101" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="29" customHeight="1">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -11959,7 +11927,7 @@
       <c r="J101" s="39"/>
       <c r="K101" s="41"/>
     </row>
-    <row r="102" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="29" customHeight="1">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -11972,7 +11940,7 @@
       <c r="J102" s="39"/>
       <c r="K102" s="41"/>
     </row>
-    <row r="103" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="29" customHeight="1">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -11985,7 +11953,7 @@
       <c r="J103" s="39"/>
       <c r="K103" s="41"/>
     </row>
-    <row r="104" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="29" customHeight="1">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -11998,7 +11966,7 @@
       <c r="J104" s="39"/>
       <c r="K104" s="41"/>
     </row>
-    <row r="105" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="29" customHeight="1">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -12011,7 +11979,7 @@
       <c r="J105" s="39"/>
       <c r="K105" s="41"/>
     </row>
-    <row r="106" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="29" customHeight="1">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -12024,7 +11992,7 @@
       <c r="J106" s="39"/>
       <c r="K106" s="41"/>
     </row>
-    <row r="107" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="29" customHeight="1">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -12037,7 +12005,7 @@
       <c r="J107" s="39"/>
       <c r="K107" s="41"/>
     </row>
-    <row r="108" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="29" customHeight="1">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -12050,7 +12018,7 @@
       <c r="J108" s="39"/>
       <c r="K108" s="41"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -12063,7 +12031,7 @@
       <c r="J109" s="39"/>
       <c r="K109" s="41"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -12076,7 +12044,7 @@
       <c r="J110" s="39"/>
       <c r="K110" s="41"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -12089,7 +12057,7 @@
       <c r="J111" s="39"/>
       <c r="K111" s="41"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -12102,7 +12070,7 @@
       <c r="J112" s="39"/>
       <c r="K112" s="41"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -12115,7 +12083,7 @@
       <c r="J113" s="39"/>
       <c r="K113" s="41"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -12128,7 +12096,7 @@
       <c r="J114" s="39"/>
       <c r="K114" s="41"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -12141,7 +12109,7 @@
       <c r="J115" s="39"/>
       <c r="K115" s="41"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -12154,7 +12122,7 @@
       <c r="J116" s="39"/>
       <c r="K116" s="41"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -12167,7 +12135,7 @@
       <c r="J117" s="39"/>
       <c r="K117" s="41"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -12189,27 +12157,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="40" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>501</v>
       </c>
@@ -12222,7 +12190,7 @@
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -12261,26 +12229,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>502</v>
       </c>
@@ -12301,7 +12269,7 @@
       <c r="P1" s="94"/>
       <c r="Q1" s="94"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -12363,31 +12331,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="40" customWidth="1"/>
     <col min="11" max="11" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>511</v>
       </c>
@@ -12411,7 +12379,7 @@
       <c r="S1" s="94"/>
       <c r="T1" s="94"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12473,7 +12441,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>326</v>
       </c>
@@ -12519,7 +12487,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>326</v>
       </c>
@@ -12565,7 +12533,7 @@
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>326</v>
       </c>
@@ -12611,7 +12579,7 @@
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A6" s="39" t="s">
         <v>326</v>
       </c>
@@ -12657,7 +12625,7 @@
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A7" s="39" t="s">
         <v>326</v>
       </c>
@@ -12703,7 +12671,7 @@
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
     </row>
-    <row r="8" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A8" s="39" t="s">
         <v>326</v>
       </c>
@@ -12749,7 +12717,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A9" s="39" t="s">
         <v>326</v>
       </c>
@@ -12795,7 +12763,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
     </row>
-    <row r="10" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A10" s="39" t="s">
         <v>326</v>
       </c>
@@ -12841,7 +12809,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
     </row>
-    <row r="11" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A11" s="39" t="s">
         <v>326</v>
       </c>
@@ -12887,7 +12855,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
     </row>
-    <row r="12" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A12" s="39" t="s">
         <v>326</v>
       </c>
@@ -12933,7 +12901,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
     </row>
-    <row r="13" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A13" s="39" t="s">
         <v>326</v>
       </c>
@@ -12979,7 +12947,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A14" s="39" t="s">
         <v>326</v>
       </c>
@@ -13025,7 +12993,7 @@
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
     </row>
-    <row r="15" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A15" s="39" t="s">
         <v>326</v>
       </c>
@@ -13071,7 +13039,7 @@
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A16" s="39" t="s">
         <v>326</v>
       </c>
@@ -13117,7 +13085,7 @@
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
@@ -13141,7 +13109,7 @@
       <c r="S17" s="41"/>
       <c r="T17" s="41"/>
     </row>
-    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -13182,7 +13150,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>
@@ -13224,7 +13192,7 @@
       <c r="Q19" s="86"/>
       <c r="R19" s="84"/>
     </row>
-    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A20" s="83" t="s">
         <v>5</v>
       </c>
@@ -13262,7 +13230,7 @@
       <c r="Q20" s="86"/>
       <c r="R20" s="84"/>
     </row>
-    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A21" s="83" t="s">
         <v>5</v>
       </c>
@@ -13314,24 +13282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>512</v>
       </c>
@@ -13342,7 +13310,7 @@
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
     </row>
-    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +13333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -13376,7 +13344,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13399,7 +13367,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13420,7 +13388,7 @@
       </c>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -13450,34 +13418,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="40" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="102" t="s">
         <v>875</v>
       </c>
@@ -13499,7 +13467,7 @@
       <c r="O1" s="96"/>
       <c r="P1" s="97"/>
     </row>
-    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -13549,7 +13517,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -13569,7 +13537,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="58">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13617,7 +13585,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13659,7 +13627,7 @@
       </c>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.5">
       <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
@@ -13701,7 +13669,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.5">
       <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
@@ -13754,27 +13722,27 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="23" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>639</v>
       </c>
@@ -13788,7 +13756,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="97"/>
     </row>
-    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13820,7 +13788,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -13834,7 +13802,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13866,7 +13834,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13904,34 +13872,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
     <col min="7" max="7" width="15" style="40" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="16" style="40" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="40" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>519</v>
       </c>
@@ -13954,7 +13922,7 @@
       <c r="P1" s="108"/>
       <c r="Q1" s="108"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -14007,7 +13975,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -14028,7 +13996,7 @@
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -14067,7 +14035,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="30"/>
       <c r="B5" s="41"/>
       <c r="C5" s="30"/>
@@ -14092,7 +14060,7 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -14116,7 +14084,7 @@
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -14149,7 +14117,7 @@
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -14188,7 +14156,7 @@
       </c>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -14225,7 +14193,7 @@
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -14269,29 +14237,29 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="40" customWidth="1"/>
-    <col min="5" max="6" width="19.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="40" customWidth="1"/>
+    <col min="5" max="6" width="19.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="25" style="40" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="40" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="28.1796875" style="40" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="122.5" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>503</v>
       </c>
@@ -14313,7 +14281,7 @@
       <c r="Q1" s="94"/>
       <c r="R1" s="94"/>
     </row>
-    <row r="2" spans="1:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -14369,7 +14337,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.25" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -14391,7 +14359,7 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
     </row>
-    <row r="4" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="65.5" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -14437,7 +14405,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="37.25" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -14463,7 +14431,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="43.25" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -14519,23 +14487,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>496</v>
       </c>
@@ -14544,7 +14512,7 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -14561,7 +14529,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -14576,7 +14544,7 @@
       </c>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -14591,7 +14559,7 @@
       </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -14606,7 +14574,7 @@
       </c>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -14621,7 +14589,7 @@
       </c>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
@@ -14630,7 +14598,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -14643,7 +14611,7 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -14658,7 +14626,7 @@
       </c>
       <c r="E9" s="83"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -14673,7 +14641,7 @@
       </c>
       <c r="E10" s="83"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -14686,7 +14654,7 @@
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -14701,7 +14669,7 @@
       </c>
       <c r="E12" s="83"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -14716,7 +14684,7 @@
       </c>
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -14731,7 +14699,7 @@
       </c>
       <c r="E14" s="83"/>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -14758,31 +14726,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="40" customWidth="1"/>
     <col min="6" max="6" width="18" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="40" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="40" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="40" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>526</v>
       </c>
@@ -14807,7 +14775,7 @@
       <c r="T1" s="96"/>
       <c r="U1" s="97"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -14872,7 +14840,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -14897,7 +14865,7 @@
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -14960,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15003,7 +14971,7 @@
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -15060,31 +15028,31 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="40" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="40" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="40" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>494</v>
       </c>
@@ -15109,7 +15077,7 @@
       <c r="R1" s="109"/>
       <c r="S1" s="110"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15168,7 +15136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -15191,7 +15159,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -15224,7 +15192,7 @@
       </c>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15247,7 +15215,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -15270,7 +15238,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -15293,7 +15261,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -15316,7 +15284,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -15343,7 +15311,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -15372,7 +15340,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -15407,7 +15375,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -15442,7 +15410,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -15469,7 +15437,7 @@
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -15496,7 +15464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -15521,7 +15489,7 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -15548,7 +15516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -15573,7 +15541,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -15600,7 +15568,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -15621,7 +15589,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41" t="s">
@@ -15648,7 +15616,7 @@
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -15671,7 +15639,7 @@
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="41" t="s">
         <v>5</v>
       </c>
@@ -15702,7 +15670,7 @@
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -15731,47 +15699,47 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1400-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1400-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1400-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1400-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>495</v>
       </c>
@@ -15781,7 +15749,7 @@
       <c r="E1" s="112"/>
       <c r="F1" s="113"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -15801,7 +15769,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -15811,7 +15779,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -15831,7 +15799,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15845,7 +15813,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41" t="s">
@@ -15861,7 +15829,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
@@ -15886,7 +15854,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -15895,27 +15863,27 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="15" style="40" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="40" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>525</v>
       </c>
@@ -15935,7 +15903,7 @@
       <c r="O1" s="94"/>
       <c r="P1" s="94"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15985,7 +15953,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -16005,7 +15973,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -16047,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
@@ -16075,7 +16043,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -16127,24 +16095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>255</v>
       </c>
@@ -16164,7 +16132,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>220</v>
       </c>
@@ -16184,7 +16152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>224</v>
       </c>
@@ -16204,7 +16172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>204</v>
       </c>
@@ -16224,7 +16192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>197</v>
       </c>
@@ -16242,7 +16210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>217</v>
       </c>
@@ -16255,7 +16223,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>229</v>
       </c>
@@ -16264,7 +16232,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>203</v>
       </c>
@@ -16272,7 +16240,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>208</v>
       </c>
@@ -16280,7 +16248,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>222</v>
       </c>
@@ -16288,7 +16256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>227</v>
       </c>
@@ -16296,153 +16264,153 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="32" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1">
       <c r="B14" s="32" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1">
       <c r="B15" s="32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1">
       <c r="B16" s="32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1">
       <c r="B17" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1">
       <c r="B18" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1">
       <c r="B19" s="32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1">
       <c r="B20" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1">
       <c r="B21" s="32" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1">
       <c r="B22" s="32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1">
       <c r="B24" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1">
       <c r="B25" s="32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1">
       <c r="B26" s="32" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1">
       <c r="B27" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1">
       <c r="B28" s="32" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1">
       <c r="B29" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1">
       <c r="B30" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1">
       <c r="B31" s="32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1">
       <c r="B32" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1">
       <c r="B33" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1">
       <c r="B34" s="32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1">
       <c r="B36" s="32" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1">
       <c r="B37" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1">
       <c r="B38" s="32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1">
       <c r="B39" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1">
       <c r="B40" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -16452,28 +16420,28 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="40"/>
     <col min="8" max="8" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="9" max="9" width="13.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>520</v>
       </c>
@@ -16486,7 +16454,7 @@
       <c r="H1" s="114"/>
       <c r="I1" s="114"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -16515,7 +16483,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -16528,7 +16496,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="58">
       <c r="A4" s="41" t="s">
         <v>326</v>
       </c>
@@ -16558,7 +16526,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="41" t="s">
         <v>326</v>
       </c>
@@ -16596,39 +16564,39 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="14" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="13" style="40" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="60" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="40"/>
-    <col min="14" max="14" width="20.5" style="3"/>
-    <col min="15" max="17" width="20.5" style="40"/>
+    <col min="10" max="10" width="16.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="60" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="40"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="40"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5" style="40"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="20.5" style="40"/>
-    <col min="25" max="25" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5" style="40"/>
+    <col min="19" max="21" width="20.453125" style="40"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="40"/>
+    <col min="25" max="25" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>644</v>
       </c>
@@ -16656,7 +16624,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="43.5">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -16730,7 +16698,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -16758,7 +16726,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="58" t="s">
         <v>326</v>
       </c>
@@ -16832,7 +16800,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="58" t="s">
         <v>326</v>
       </c>
@@ -16911,25 +16879,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1900-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -16939,46 +16907,46 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="60" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="40" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="40" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="40"/>
+    <col min="27" max="27" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>645</v>
       </c>
@@ -17006,7 +16974,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -17080,7 +17048,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -17108,7 +17076,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="58">
       <c r="A4" s="58" t="s">
         <v>326</v>
       </c>
@@ -17182,7 +17150,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="58" t="s">
         <v>326</v>
       </c>
@@ -17259,28 +17227,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1A00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1A00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1A00-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -17290,44 +17258,44 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="25" width="14.5" style="40" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="40"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="40" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>646</v>
       </c>
@@ -17355,7 +17323,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -17429,7 +17397,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="67" customFormat="1">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -17456,7 +17424,7 @@
       <c r="W3" s="63"/>
       <c r="X3" s="56"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
@@ -17530,7 +17498,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="55"/>
       <c r="B5" s="52"/>
       <c r="C5" s="62"/>
@@ -17541,22 +17509,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1B00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -17566,27 +17534,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="53" t="s">
         <v>352</v>
       </c>
@@ -17615,7 +17583,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="41" t="s">
         <v>104</v>
       </c>
@@ -17644,7 +17612,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="41" t="s">
         <v>353</v>
       </c>
@@ -17673,7 +17641,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="41" t="s">
         <v>354</v>
       </c>
@@ -17693,7 +17661,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="41" t="s">
         <v>351</v>
       </c>
@@ -17713,7 +17681,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
         <v>355</v>
       </c>
@@ -17731,7 +17699,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="41" t="s">
         <v>338</v>
       </c>
@@ -17749,7 +17717,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -17765,7 +17733,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
@@ -17781,7 +17749,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
@@ -17797,7 +17765,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
@@ -17813,7 +17781,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
@@ -17827,7 +17795,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -17841,7 +17809,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
@@ -17855,472 +17823,472 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="I15" s="41" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="I16" s="41" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9">
       <c r="I17" s="41" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9">
       <c r="I18" s="41" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9">
       <c r="I19" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9">
       <c r="I20" s="41" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9">
       <c r="I21" s="41" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" s="41" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9">
       <c r="I23" s="41" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9">
       <c r="I24" s="41" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" s="41" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" s="41" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" s="41" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" s="41" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:9">
       <c r="I29" s="41" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:9">
       <c r="I30" s="41" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:9">
       <c r="I31" s="41" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:9">
       <c r="I32" s="41" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:9">
       <c r="I33" s="41" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:9">
       <c r="I34" s="41" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:9">
       <c r="I35" s="41" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:9">
       <c r="I36" s="41" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:9">
       <c r="I37" s="41" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:9">
       <c r="I38" s="41" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:9">
       <c r="I39" s="41" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:9">
       <c r="I40" s="41" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:9">
       <c r="I41" s="41" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:9">
       <c r="I42" s="41" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:9">
       <c r="I43" s="41" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:9">
       <c r="I44" s="41" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:9">
       <c r="I45" s="41" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:9">
       <c r="I46" s="41" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:9">
       <c r="I47" s="41" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:9">
       <c r="I48" s="41" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9">
       <c r="I49" s="41" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9">
       <c r="I50" s="41" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9">
       <c r="I51" s="41" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9">
       <c r="I52" s="41" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9">
       <c r="I53" s="41" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9">
       <c r="I54" s="41" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9">
       <c r="I55" s="41" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9">
       <c r="I56" s="41" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9">
       <c r="I57" s="41" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9">
       <c r="I58" s="41" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:9">
       <c r="I59" s="41" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:9">
       <c r="I60" s="41" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:9">
       <c r="I61" s="41" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:9">
       <c r="I62" s="41" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:9">
       <c r="I63" s="41" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:9">
       <c r="I64" s="41" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9">
       <c r="I65" s="41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9">
       <c r="I66" s="41" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9">
       <c r="I67" s="41" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9">
       <c r="I68" s="41" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9">
       <c r="I69" s="41" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9">
       <c r="I70" s="41" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9">
       <c r="I71" s="41" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9">
       <c r="I72" s="41" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9">
       <c r="I73" s="41" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9">
       <c r="I74" s="41" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9">
       <c r="I75" s="41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9">
       <c r="I76" s="41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9">
       <c r="I77" s="41" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9">
       <c r="I78" s="41" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9">
       <c r="I79" s="41" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9">
       <c r="I80" s="41" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9">
       <c r="I81" s="41" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9">
       <c r="I82" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9">
       <c r="I83" s="41" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9">
       <c r="I84" s="41" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9">
       <c r="I85" s="41" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9">
       <c r="I86" s="41" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9">
       <c r="I87" s="41" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9">
       <c r="I88" s="41" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9">
       <c r="I89" s="41" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9">
       <c r="I90" s="41" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9">
       <c r="I91" s="41" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9">
       <c r="I92" s="41" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9">
       <c r="I93" s="41" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9">
       <c r="I94" s="41" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9">
       <c r="I95" s="41" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9">
       <c r="I96" s="41" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97" s="41" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" s="41" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99" s="41" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" s="41" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102" s="41" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" s="41" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104" s="41" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" s="41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" s="41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" s="41" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108" s="41" t="s">
         <v>635</v>
       </c>
@@ -18332,23 +18300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="40" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>497</v>
       </c>
@@ -18357,7 +18325,7 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -18374,7 +18342,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -18387,7 +18355,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -18400,7 +18368,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -18413,7 +18381,7 @@
       <c r="D5" s="39"/>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="29">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -18426,7 +18394,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="40" customFormat="1" ht="43.5">
       <c r="A7" s="85" t="s">
         <v>5</v>
       </c>
@@ -18439,7 +18407,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
@@ -18452,7 +18420,7 @@
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -18465,7 +18433,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
@@ -18478,7 +18446,7 @@
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="75" t="s">
         <v>4</v>
       </c>
@@ -18493,26 +18461,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="40"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>498</v>
       </c>
@@ -18524,7 +18492,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -18550,7 +18518,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="69.5" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -18570,7 +18538,7 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="69.5" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -18582,7 +18550,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="102.5" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -18602,7 +18570,7 @@
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="29" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -18614,7 +18582,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="29" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -18626,7 +18594,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="29" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -18638,7 +18606,7 @@
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="29" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -18650,7 +18618,7 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="29" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -18662,7 +18630,7 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="29" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -18674,7 +18642,7 @@
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="29" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -18686,7 +18654,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="29" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -18698,7 +18666,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="29" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -18710,7 +18678,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="29" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -18722,7 +18690,7 @@
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="29" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -18734,7 +18702,7 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="29" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -18746,7 +18714,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="29" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -18758,7 +18726,7 @@
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="29" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -18770,7 +18738,7 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="29" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -18782,7 +18750,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="29" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -18794,7 +18762,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -18806,7 +18774,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="29" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -18818,7 +18786,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="29" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -18830,7 +18798,7 @@
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="29" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -18842,7 +18810,7 @@
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="29" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -18854,7 +18822,7 @@
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="29" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -18866,7 +18834,7 @@
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="29" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -18878,7 +18846,7 @@
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="29">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -18890,7 +18858,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -18902,7 +18870,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="29" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -18914,7 +18882,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="29" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -18926,7 +18894,7 @@
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="29" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -18938,7 +18906,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="29">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -18950,7 +18918,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="29">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -18962,7 +18930,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -18974,7 +18942,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="43.5" customHeight="1">
       <c r="A37" s="39" t="s">
         <v>5</v>
       </c>
@@ -18994,7 +18962,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="29" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -19006,7 +18974,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="29" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -19018,7 +18986,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="43.5" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -19030,7 +18998,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="43.5" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -19042,7 +19010,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="29" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -19054,7 +19022,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="29" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -19066,7 +19034,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="29" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -19078,7 +19046,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="29" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -19090,7 +19058,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="29" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -19102,7 +19070,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="29" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -19114,7 +19082,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -19126,7 +19094,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -19138,7 +19106,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -19150,7 +19118,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="29">
       <c r="A51" s="39" t="s">
         <v>5</v>
       </c>
@@ -19170,7 +19138,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -19182,7 +19150,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="203">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -19194,7 +19162,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -19206,7 +19174,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="29" customHeight="1">
       <c r="A55" s="39" t="s">
         <v>5</v>
       </c>
@@ -19226,7 +19194,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="29" customHeight="1">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -19238,7 +19206,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -19250,7 +19218,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -19262,7 +19230,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="29" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -19274,7 +19242,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="29">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -19286,7 +19254,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="29" customHeight="1">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -19298,7 +19266,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="29">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -19310,7 +19278,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="29">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -19322,7 +19290,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -19334,7 +19302,7 @@
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="29">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -19346,7 +19314,7 @@
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -19358,7 +19326,7 @@
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -19370,7 +19338,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -19382,7 +19350,7 @@
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -19394,7 +19362,7 @@
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
     </row>
-    <row r="70" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="29" customHeight="1">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -19406,7 +19374,7 @@
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
     </row>
-    <row r="71" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="29" customHeight="1">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -19418,7 +19386,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="87" customHeight="1">
       <c r="A72" s="39" t="s">
         <v>5</v>
       </c>
@@ -19438,7 +19406,7 @@
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
     </row>
-    <row r="73" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="29" customHeight="1">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -19450,7 +19418,7 @@
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
     </row>
-    <row r="74" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="29" customHeight="1">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -19462,7 +19430,7 @@
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
     </row>
-    <row r="75" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="29" customHeight="1">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -19474,7 +19442,7 @@
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
     </row>
-    <row r="76" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="29" customHeight="1">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -19486,7 +19454,7 @@
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -19498,7 +19466,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="29" customHeight="1">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -19510,7 +19478,7 @@
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="29" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -19522,7 +19490,7 @@
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
     </row>
-    <row r="80" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="29" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -19534,7 +19502,7 @@
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
     </row>
-    <row r="81" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="29" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -19546,7 +19514,7 @@
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
     </row>
-    <row r="82" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="29" customHeight="1">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -19558,7 +19526,7 @@
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
     </row>
-    <row r="83" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="29" customHeight="1">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -19570,7 +19538,7 @@
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
     </row>
-    <row r="84" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="29" customHeight="1">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -19582,7 +19550,7 @@
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
     </row>
-    <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -19594,7 +19562,7 @@
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
     </row>
-    <row r="86" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="29" customHeight="1">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -19606,7 +19574,7 @@
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
     </row>
-    <row r="87" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="29" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -19618,7 +19586,7 @@
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
     </row>
-    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="29">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -19630,7 +19598,7 @@
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
     </row>
-    <row r="89" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="29">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -19642,7 +19610,7 @@
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="29">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -19654,7 +19622,7 @@
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
     </row>
-    <row r="91" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="101.5" customHeight="1">
       <c r="A91" s="39" t="s">
         <v>5</v>
       </c>
@@ -19674,7 +19642,7 @@
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="29">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -19686,7 +19654,7 @@
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
     </row>
-    <row r="93" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="29" customHeight="1">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -19698,7 +19666,7 @@
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="29">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -19710,7 +19678,7 @@
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
     </row>
-    <row r="95" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="29" customHeight="1">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -19722,7 +19690,7 @@
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
     </row>
-    <row r="96" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="29" customHeight="1">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -19734,7 +19702,7 @@
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
     </row>
-    <row r="97" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="29" customHeight="1">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -19746,7 +19714,7 @@
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
     </row>
-    <row r="98" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="29" customHeight="1">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -19758,7 +19726,7 @@
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
     </row>
-    <row r="99" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="29" customHeight="1">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -19770,7 +19738,7 @@
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
     </row>
-    <row r="100" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="29" customHeight="1">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -19782,7 +19750,7 @@
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
     </row>
-    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="29">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -19794,7 +19762,7 @@
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
     </row>
-    <row r="102" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="29" customHeight="1">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -19806,7 +19774,7 @@
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
     </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="29">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -19818,7 +19786,7 @@
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
     </row>
-    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="29">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -19830,7 +19798,7 @@
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
     </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="29">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -19842,7 +19810,7 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="29" customHeight="1">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -19854,7 +19822,7 @@
       <c r="G106" s="39"/>
       <c r="H106" s="39"/>
     </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -19866,7 +19834,7 @@
       <c r="G107" s="39"/>
       <c r="H107" s="39"/>
     </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -19878,7 +19846,7 @@
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
     </row>
-    <row r="109" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="101.5" customHeight="1">
       <c r="A109" s="39" t="s">
         <v>5</v>
       </c>
@@ -19898,7 +19866,7 @@
       <c r="G109" s="39"/>
       <c r="H109" s="39"/>
     </row>
-    <row r="110" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="29" customHeight="1">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -19910,7 +19878,7 @@
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="29" customHeight="1">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -19922,7 +19890,7 @@
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
-    <row r="112" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="29" customHeight="1">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -19934,7 +19902,7 @@
       <c r="G112" s="39"/>
       <c r="H112" s="39"/>
     </row>
-    <row r="113" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="29" customHeight="1">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -19946,7 +19914,7 @@
       <c r="G113" s="39"/>
       <c r="H113" s="39"/>
     </row>
-    <row r="114" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="29" customHeight="1">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -19958,7 +19926,7 @@
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
     </row>
-    <row r="115" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="29" customHeight="1">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -19970,7 +19938,7 @@
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
     </row>
-    <row r="116" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="29" customHeight="1">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -19982,7 +19950,7 @@
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
     </row>
-    <row r="117" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="29" customHeight="1">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -19994,7 +19962,7 @@
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
     </row>
-    <row r="118" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -20006,7 +19974,7 @@
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
     </row>
-    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="29">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
@@ -20018,7 +19986,7 @@
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
@@ -20030,7 +19998,7 @@
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
     </row>
-    <row r="121" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="72.5">
       <c r="A121" s="39" t="s">
         <v>5</v>
       </c>
@@ -20050,7 +20018,7 @@
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
     </row>
-    <row r="122" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
       <c r="A122" s="39" t="s">
         <v>5</v>
       </c>
@@ -20070,7 +20038,7 @@
       <c r="G122" s="39"/>
       <c r="H122" s="39"/>
     </row>
-    <row r="123" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="29" customHeight="1">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -20082,7 +20050,7 @@
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
     </row>
-    <row r="124" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="43.5" customHeight="1">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
@@ -20094,7 +20062,7 @@
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
     </row>
-    <row r="125" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="29" customHeight="1">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
@@ -20106,7 +20074,7 @@
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
     </row>
-    <row r="126" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="29" customHeight="1">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -20118,7 +20086,7 @@
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
     </row>
-    <row r="127" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="29" customHeight="1">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
@@ -20130,7 +20098,7 @@
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
     </row>
-    <row r="128" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="29" customHeight="1">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
@@ -20142,7 +20110,7 @@
       <c r="G128" s="39"/>
       <c r="H128" s="39"/>
     </row>
-    <row r="129" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="29" customHeight="1">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
@@ -20154,7 +20122,7 @@
       <c r="G129" s="39"/>
       <c r="H129" s="39"/>
     </row>
-    <row r="130" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="29" customHeight="1">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
@@ -20166,7 +20134,7 @@
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
     </row>
-    <row r="131" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="29" customHeight="1">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
@@ -20178,7 +20146,7 @@
       <c r="G131" s="39"/>
       <c r="H131" s="39"/>
     </row>
-    <row r="132" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="29" customHeight="1">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
@@ -20190,7 +20158,7 @@
       <c r="G132" s="39"/>
       <c r="H132" s="39"/>
     </row>
-    <row r="133" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="29" customHeight="1">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
@@ -20202,7 +20170,7 @@
       <c r="G133" s="39"/>
       <c r="H133" s="39"/>
     </row>
-    <row r="134" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="29" customHeight="1">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
@@ -20214,7 +20182,7 @@
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
     </row>
-    <row r="135" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="29" customHeight="1">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -20226,7 +20194,7 @@
       <c r="G135" s="39"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="29" customHeight="1">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
@@ -20238,7 +20206,7 @@
       <c r="G136" s="39"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="29" customHeight="1">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -20250,7 +20218,7 @@
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="29" customHeight="1">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
@@ -20262,7 +20230,7 @@
       <c r="G138" s="39"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="29" customHeight="1">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -20274,7 +20242,7 @@
       <c r="G139" s="39"/>
       <c r="H139" s="39"/>
     </row>
-    <row r="140" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="29" customHeight="1">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -20286,7 +20254,7 @@
       <c r="G140" s="39"/>
       <c r="H140" s="39"/>
     </row>
-    <row r="141" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="29" customHeight="1">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
@@ -20298,7 +20266,7 @@
       <c r="G141" s="39"/>
       <c r="H141" s="39"/>
     </row>
-    <row r="142" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="29" customHeight="1">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="39"/>
@@ -20310,7 +20278,7 @@
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
     </row>
-    <row r="143" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="29" customHeight="1">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
@@ -20322,7 +20290,7 @@
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
     </row>
-    <row r="144" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="29">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="39"/>
@@ -20334,7 +20302,7 @@
       <c r="G144" s="39"/>
       <c r="H144" s="39"/>
     </row>
-    <row r="145" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="29">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
@@ -20346,7 +20314,7 @@
       <c r="G145" s="39"/>
       <c r="H145" s="39"/>
     </row>
-    <row r="146" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="29" customHeight="1">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="39"/>
@@ -20358,7 +20326,7 @@
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
     </row>
-    <row r="147" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="29" customHeight="1">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="39"/>
@@ -20370,7 +20338,7 @@
       <c r="G147" s="39"/>
       <c r="H147" s="39"/>
     </row>
-    <row r="148" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="29" customHeight="1">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="39"/>
@@ -20382,7 +20350,7 @@
       <c r="G148" s="39"/>
       <c r="H148" s="39"/>
     </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="29">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="39"/>
@@ -20394,7 +20362,7 @@
       <c r="G149" s="39"/>
       <c r="H149" s="39"/>
     </row>
-    <row r="150" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="29" customHeight="1">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
@@ -20406,7 +20374,7 @@
       <c r="G150" s="39"/>
       <c r="H150" s="39"/>
     </row>
-    <row r="151" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="29" customHeight="1">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="39"/>
@@ -20418,7 +20386,7 @@
       <c r="G151" s="39"/>
       <c r="H151" s="39"/>
     </row>
-    <row r="152" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="29" customHeight="1">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
@@ -20430,7 +20398,7 @@
       <c r="G152" s="39"/>
       <c r="H152" s="39"/>
     </row>
-    <row r="153" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="29" customHeight="1">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="39"/>
@@ -20442,7 +20410,7 @@
       <c r="G153" s="39"/>
       <c r="H153" s="39"/>
     </row>
-    <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="60" customHeight="1">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="39"/>
@@ -20461,28 +20429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="40" customWidth="1"/>
     <col min="8" max="8" width="21" style="40" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>529</v>
       </c>
@@ -20498,7 +20466,7 @@
       <c r="I1" s="99"/>
       <c r="J1" s="100"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -20530,7 +20498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
@@ -20560,7 +20528,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="40" customFormat="1" ht="29">
       <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
@@ -20590,7 +20558,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -20604,7 +20572,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1">
       <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
@@ -20634,7 +20602,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -20662,7 +20630,7 @@
       </c>
       <c r="J7" s="83"/>
     </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="28.75" customHeight="1">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -20684,7 +20652,7 @@
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -20708,7 +20676,7 @@
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -20732,7 +20700,7 @@
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28.75" customHeight="1">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -20760,7 +20728,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -20782,7 +20750,7 @@
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -20804,7 +20772,7 @@
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -20839,29 +20807,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="14" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="40" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>514</v>
       </c>
@@ -20879,7 +20847,7 @@
       <c r="K1" s="96"/>
       <c r="L1" s="97"/>
     </row>
-    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -20917,7 +20885,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="40" customFormat="1">
       <c r="A3" s="39" t="s">
         <v>326</v>
       </c>
@@ -20951,7 +20919,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="37" customFormat="1">
       <c r="A4" s="39" t="s">
         <v>326</v>
       </c>
@@ -20985,7 +20953,7 @@
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="37" customFormat="1">
       <c r="A5" s="39" t="s">
         <v>326</v>
       </c>
@@ -21019,7 +20987,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="37" customFormat="1">
       <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
@@ -21035,7 +21003,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" s="93" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="93" customFormat="1" ht="28.75" customHeight="1">
       <c r="A7" s="50"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -21049,7 +21017,7 @@
       <c r="K7" s="50"/>
       <c r="L7" s="75"/>
     </row>
-    <row r="8" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="93" customFormat="1">
       <c r="A8" s="50"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -21063,7 +21031,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="93" customFormat="1">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -21077,7 +21045,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
     </row>
-    <row r="10" spans="1:12" s="93" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="93" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -21089,27 +21057,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="40" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="40" customWidth="1"/>
-    <col min="8" max="18" width="8.6640625" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="40"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1796875" style="40" customWidth="1"/>
+    <col min="8" max="18" width="8.6328125" style="40" customWidth="1"/>
+    <col min="19" max="16384" width="8.6328125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>885</v>
       </c>
@@ -21122,7 +21090,7 @@
       </c>
       <c r="G1" s="96"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
@@ -21145,7 +21113,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="39" t="s">
         <v>326</v>
       </c>
@@ -21168,7 +21136,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="39" t="s">
         <v>326</v>
       </c>
@@ -21187,7 +21155,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="39" t="s">
         <v>326</v>
       </c>
@@ -21206,7 +21174,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -21217,7 +21185,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -21226,7 +21194,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="93" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -21235,7 +21203,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
     </row>
-    <row r="9" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="93" customFormat="1">
       <c r="A9" s="75"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -21244,7 +21212,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -21253,7 +21221,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -21262,7 +21230,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -21271,7 +21239,7 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -21280,7 +21248,7 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -21289,7 +21257,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -21298,7 +21266,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -21307,7 +21275,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -21316,7 +21284,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -21325,7 +21293,7 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -21334,7 +21302,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -21343,7 +21311,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -21352,7 +21320,7 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -21361,7 +21329,7 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -21370,7 +21338,7 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -21379,7 +21347,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -21388,7 +21356,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -21397,7 +21365,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -21406,7 +21374,7 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -21415,7 +21383,7 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -21424,7 +21392,7 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -21433,7 +21401,7 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -21442,7 +21410,7 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -21462,28 +21430,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="40" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="40"/>
+    <col min="1" max="1" width="32.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="40" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>492</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -21491,7 +21459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -21499,19 +21467,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="41"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="41"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -21529,26 +21497,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>499</v>
       </c>
@@ -21560,7 +21528,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -21586,7 +21554,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>326</v>
       </c>
@@ -21594,7 +21562,7 @@
         <v>376</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>796</v>
+        <v>920</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>36</v>
@@ -21608,7 +21576,7 @@
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>326</v>
       </c>
@@ -21616,7 +21584,7 @@
         <v>376</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>36</v>
@@ -21630,78 +21598,78 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>797</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>927</v>
+      </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.75" customHeight="1">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.75" customHeight="1">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="E8" s="83" t="s">
         <v>39</v>
@@ -21711,6 +21679,28 @@
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A9" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-DRGv2-template.xlsx
@@ -6606,77 +6606,6 @@
                                 Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 - Columns Region, Compartment Name, DRG Name are mandatory.
 - Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
@@ -6868,6 +6797,77 @@
   </si>
   <si>
     <t>10.110.3.0/24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9586,7 +9586,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>884</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -9712,10 +9712,10 @@
         <v>376</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>51</v>
@@ -9730,10 +9730,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>23</v>
@@ -9764,10 +9764,10 @@
         <v>376</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>798</v>
@@ -9782,10 +9782,10 @@
         <v>36</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>23</v>
@@ -9816,13 +9816,13 @@
         <v>376</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>52</v>
@@ -9834,10 +9834,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>23</v>
@@ -10635,20 +10635,20 @@
         <v>795</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="75" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H3" s="75" t="s">
         <v>829</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="41"/>
@@ -14292,13 +14292,13 @@
         <v>140</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>941</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>942</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>141</v>
@@ -18438,10 +18438,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>886</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>887</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>888</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -18544,7 +18544,7 @@
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -18828,7 +18828,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -18852,7 +18852,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -18864,7 +18864,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -18924,7 +18924,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -18936,7 +18936,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -19100,7 +19100,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -19112,7 +19112,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -19123,16 +19123,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>428</v>
       </c>
       <c r="D51" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="E51" s="39" t="s">
         <v>898</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>899</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -19144,7 +19144,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -19156,7 +19156,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -19168,7 +19168,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -19604,7 +19604,7 @@
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -19616,7 +19616,7 @@
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
@@ -19636,7 +19636,7 @@
         <v>742</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
@@ -19720,7 +19720,7 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
@@ -19744,7 +19744,7 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
@@ -19756,7 +19756,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
@@ -19768,7 +19768,7 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
@@ -19816,7 +19816,7 @@
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
@@ -19828,7 +19828,7 @@
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -19840,7 +19840,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
@@ -19980,7 +19980,7 @@
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -19992,7 +19992,7 @@
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -20056,7 +20056,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
@@ -20344,7 +20344,7 @@
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
@@ -20356,7 +20356,7 @@
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F149" s="39"/>
       <c r="G149" s="39"/>
@@ -20404,7 +20404,7 @@
       <c r="C153" s="39"/>
       <c r="D153" s="39"/>
       <c r="E153" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
@@ -20893,7 +20893,7 @@
         <v>376</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
@@ -20914,7 +20914,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K3" s="41"/>
       <c r="L3" s="39"/>
@@ -20948,7 +20948,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
@@ -20982,7 +20982,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
@@ -21079,14 +21079,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="95" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
       <c r="E1" s="96"/>
       <c r="F1" s="95" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G1" s="96"/>
     </row>
@@ -21124,16 +21124,16 @@
         <v>795</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29">
@@ -21147,10 +21147,10 @@
         <v>795</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -21166,10 +21166,10 @@
         <v>795</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -21562,7 +21562,7 @@
         <v>376</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>36</v>
@@ -21571,7 +21571,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -21593,7 +21593,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -21615,7 +21615,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
